--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>213003</t>
-  </si>
-  <si>
-    <t>213002</t>
-  </si>
-  <si>
-    <t>宝盈策略增长混合</t>
-  </si>
-  <si>
-    <t>宝盈泛沿海增长混合</t>
-  </si>
-  <si>
-    <t>13.71</t>
-  </si>
-  <si>
-    <t>8.01</t>
-  </si>
-  <si>
-    <t>90.73</t>
-  </si>
-  <si>
-    <t>89.99</t>
-  </si>
-  <si>
-    <t>7.75</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>1.0625</t>
-  </si>
-  <si>
-    <t>0.6600</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.17</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,461 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.17</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,819 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈策略增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6600</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>002340</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>富国价值优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2511</t>
+          <t>2.4038</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8062</t>
+          <t>1.0261</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.86</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0726</t>
+          <t>0.4938</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.57</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.1996</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003659</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>山西证券策略精选灵活配置混合</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.1197</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -827,36 +795,606 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>011446</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>长江新能源产业混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,36 +1933,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002340</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国价值优势混合</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4038</t>
+          <t>1.2511</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1433,36 +1971,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>213002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>宝盈泛沿海增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0261</t>
+          <t>0.8062</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1471,36 +2009,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>213002</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈泛沿海增长混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>79.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4938</t>
+          <t>0.0726</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1509,36 +2047,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1547,36 +2085,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>003659</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>山西证券策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1585,606 +2123,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011446</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长江新能源产业混合A</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.04</t>
+          <t>89.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000796</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0703</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000794</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011447</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长江新能源产业混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004724</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004725</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2198,96 +2166,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.62</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.72</v>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>4.62</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -549,6 +566,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1402,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1876,7 +2975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2160,7 +3259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
+++ b/数据整理/stocks/A股/科创板/688499-利元亨.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>8.75</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.62</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -566,6 +583,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1647,7 +2518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2501,7 +3372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2975,7 +3846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3259,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
